--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 31 January 2024 - 2022.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 31 January 2024 - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CBDA9-F23E-4D0F-AFB9-02F21C12C6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2373AC-E8DD-4CAA-880C-13510E7ACA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="53">
   <si>
     <t>Overview</t>
   </si>
@@ -331,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -475,11 +475,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -598,6 +613,36 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -613,20 +658,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -634,23 +667,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -661,16 +688,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1095,159 +1119,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="44" t="s">
+      <c r="E1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="44"/>
       <c r="AJ1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="44"/>
       <c r="BA1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="44" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="U2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="44" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="44" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="44" t="s">
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="48" t="s">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="56" t="s">
         <v>11</v>
       </c>
       <c r="AJ2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="44"/>
       <c r="AN2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="44"/>
       <c r="AR2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="44"/>
       <c r="AV2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="52" t="s">
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="48" t="s">
         <v>12</v>
       </c>
       <c r="BA2" s="5" t="s">
@@ -1313,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="T3" s="49"/>
-      <c r="U3" s="51"/>
+      <c r="U3" s="57"/>
       <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="AH3" s="49"/>
-      <c r="AI3" s="51"/>
+      <c r="AI3" s="57"/>
       <c r="AJ3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1406,7 +1430,7 @@
       </c>
     </row>
     <row r="4" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1567,7 +1591,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1726,7 +1750,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1885,7 +1909,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +2068,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
@@ -2203,7 +2227,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2362,7 +2386,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2521,7 +2545,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2680,11 +2704,11 @@
       </c>
     </row>
     <row r="12" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="17">
         <v>575</v>
       </c>
@@ -2837,7 +2861,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2998,7 +3022,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
@@ -3157,7 +3181,7 @@
       </c>
     </row>
     <row r="15" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
@@ -3316,11 +3340,11 @@
       </c>
     </row>
     <row r="16" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="17">
         <v>75</v>
       </c>
@@ -3473,11 +3497,11 @@
       </c>
     </row>
     <row r="17" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="20">
         <v>650</v>
       </c>
@@ -3632,16 +3656,6 @@
     <row r="18" spans="1:53" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="V1:AI1"/>
@@ -3658,6 +3672,16 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3720,162 +3744,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="59" t="s">
+      <c r="F1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="44"/>
       <c r="AK1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="44"/>
     </row>
     <row r="2" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="60" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="44" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="44" t="s">
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="44" t="s">
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="60" t="s">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>11</v>
       </c>
       <c r="AK2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="44"/>
       <c r="AO2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="44"/>
       <c r="AS2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="44"/>
       <c r="AW2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="62" t="s">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="BB2" s="63" t="s">
+      <c r="BB2" s="59" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3941,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="U3" s="61"/>
-      <c r="V3" s="51"/>
+      <c r="V3" s="57"/>
       <c r="W3" s="9" t="s">
         <v>16</v>
       </c>
@@ -3979,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="AI3" s="61"/>
-      <c r="AJ3" s="51"/>
+      <c r="AJ3" s="57"/>
       <c r="AK3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4029,16 +4053,16 @@
         <v>19</v>
       </c>
       <c r="BA3" s="61"/>
-      <c r="BB3" s="51"/>
+      <c r="BB3" s="57"/>
     </row>
     <row r="4" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4196,9 +4220,9 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
@@ -4354,9 +4378,9 @@
       </c>
     </row>
     <row r="6" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
@@ -4512,9 +4536,9 @@
       </c>
     </row>
     <row r="7" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4672,9 +4696,9 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
@@ -4830,9 +4854,9 @@
       </c>
     </row>
     <row r="9" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4990,9 +5014,9 @@
       </c>
     </row>
     <row r="10" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
@@ -5148,9 +5172,9 @@
       </c>
     </row>
     <row r="11" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
@@ -5306,9 +5330,9 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
@@ -5464,9 +5488,9 @@
       </c>
     </row>
     <row r="13" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="11" t="s">
         <v>29</v>
       </c>
@@ -5622,9 +5646,9 @@
       </c>
     </row>
     <row r="14" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="11" t="s">
         <v>19</v>
       </c>
@@ -5780,9 +5804,9 @@
       </c>
     </row>
     <row r="15" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -5940,9 +5964,9 @@
       </c>
     </row>
     <row r="16" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="11" t="s">
         <v>26</v>
       </c>
@@ -6098,9 +6122,9 @@
       </c>
     </row>
     <row r="17" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
@@ -6256,9 +6280,9 @@
       </c>
     </row>
     <row r="18" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6414,9 +6438,9 @@
       </c>
     </row>
     <row r="19" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
@@ -6572,9 +6596,9 @@
       </c>
     </row>
     <row r="20" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6732,9 +6756,9 @@
       </c>
     </row>
     <row r="21" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
@@ -6890,9 +6914,9 @@
       </c>
     </row>
     <row r="22" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="11" t="s">
         <v>19</v>
       </c>
@@ -7048,9 +7072,9 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -7208,9 +7232,9 @@
       </c>
     </row>
     <row r="24" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
@@ -7366,9 +7390,9 @@
       </c>
     </row>
     <row r="25" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
@@ -7524,9 +7548,9 @@
       </c>
     </row>
     <row r="26" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="11" t="s">
         <v>19</v>
       </c>
@@ -7682,9 +7706,9 @@
       </c>
     </row>
     <row r="27" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="53" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -7842,9 +7866,9 @@
       </c>
     </row>
     <row r="28" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
@@ -8000,9 +8024,9 @@
       </c>
     </row>
     <row r="29" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -8158,9 +8182,9 @@
       </c>
     </row>
     <row r="30" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="11" t="s">
         <v>19</v>
       </c>
@@ -8316,9 +8340,9 @@
       </c>
     </row>
     <row r="31" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -8476,9 +8500,9 @@
       </c>
     </row>
     <row r="32" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="11" t="s">
         <v>25</v>
       </c>
@@ -8634,9 +8658,9 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="11" t="s">
         <v>26</v>
       </c>
@@ -8792,9 +8816,9 @@
       </c>
     </row>
     <row r="34" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="11" t="s">
         <v>27</v>
       </c>
@@ -8950,9 +8974,9 @@
       </c>
     </row>
     <row r="35" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
@@ -9108,9 +9132,9 @@
       </c>
     </row>
     <row r="36" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
@@ -9266,9 +9290,9 @@
       </c>
     </row>
     <row r="37" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -9426,9 +9450,9 @@
       </c>
     </row>
     <row r="38" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="11" t="s">
         <v>28</v>
       </c>
@@ -9584,9 +9608,9 @@
       </c>
     </row>
     <row r="39" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="11" t="s">
         <v>19</v>
       </c>
@@ -9742,9 +9766,9 @@
       </c>
     </row>
     <row r="40" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -9902,9 +9926,9 @@
       </c>
     </row>
     <row r="41" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="11" t="s">
         <v>27</v>
       </c>
@@ -10060,9 +10084,9 @@
       </c>
     </row>
     <row r="42" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="11" t="s">
         <v>28</v>
       </c>
@@ -10218,9 +10242,9 @@
       </c>
     </row>
     <row r="43" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="11" t="s">
         <v>19</v>
       </c>
@@ -10376,9 +10400,9 @@
       </c>
     </row>
     <row r="44" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="40" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -10536,9 +10560,9 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="11" t="s">
         <v>26</v>
       </c>
@@ -10694,9 +10718,9 @@
       </c>
     </row>
     <row r="46" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="11" t="s">
         <v>27</v>
       </c>
@@ -10852,9 +10876,9 @@
       </c>
     </row>
     <row r="47" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="11" t="s">
         <v>19</v>
       </c>
@@ -11010,9 +11034,9 @@
       </c>
     </row>
     <row r="48" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -11170,9 +11194,9 @@
       </c>
     </row>
     <row r="49" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="11" t="s">
         <v>27</v>
       </c>
@@ -11328,9 +11352,9 @@
       </c>
     </row>
     <row r="50" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -11486,9 +11510,9 @@
       </c>
     </row>
     <row r="51" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="11" t="s">
         <v>19</v>
       </c>
@@ -11644,9 +11668,9 @@
       </c>
     </row>
     <row r="52" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -11804,9 +11828,9 @@
       </c>
     </row>
     <row r="53" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="11" t="s">
         <v>27</v>
       </c>
@@ -11962,9 +11986,9 @@
       </c>
     </row>
     <row r="54" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="11" t="s">
         <v>19</v>
       </c>
@@ -12120,9 +12144,9 @@
       </c>
     </row>
     <row r="55" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -12280,9 +12304,9 @@
       </c>
     </row>
     <row r="56" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="11" t="s">
         <v>27</v>
       </c>
@@ -12438,9 +12462,9 @@
       </c>
     </row>
     <row r="57" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="11" t="s">
         <v>28</v>
       </c>
@@ -12596,9 +12620,9 @@
       </c>
     </row>
     <row r="58" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="11" t="s">
         <v>19</v>
       </c>
@@ -12754,9 +12778,9 @@
       </c>
     </row>
     <row r="59" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -12914,9 +12938,9 @@
       </c>
     </row>
     <row r="60" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="11" t="s">
         <v>19</v>
       </c>
@@ -13072,12 +13096,12 @@
       </c>
     </row>
     <row r="61" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="46"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="14">
         <v>528</v>
       </c>
@@ -13230,7 +13254,7 @@
       </c>
     </row>
     <row r="62" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="33" t="s">
         <v>1</v>
       </c>
@@ -13392,11 +13416,11 @@
       </c>
     </row>
     <row r="63" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A63" s="54"/>
-      <c r="B63" s="53" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -13554,9 +13578,9 @@
       </c>
     </row>
     <row r="64" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="11" t="s">
         <v>19</v>
       </c>
@@ -13712,9 +13736,9 @@
       </c>
     </row>
     <row r="65" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -13872,9 +13896,9 @@
       </c>
     </row>
     <row r="66" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="11" t="s">
         <v>19</v>
       </c>
@@ -14030,9 +14054,9 @@
       </c>
     </row>
     <row r="67" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="53" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -14190,9 +14214,9 @@
       </c>
     </row>
     <row r="68" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="11" t="s">
         <v>19</v>
       </c>
@@ -14348,9 +14372,9 @@
       </c>
     </row>
     <row r="69" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -14508,9 +14532,9 @@
       </c>
     </row>
     <row r="70" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="11" t="s">
         <v>19</v>
       </c>
@@ -14666,9 +14690,9 @@
       </c>
     </row>
     <row r="71" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="53" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -14826,9 +14850,9 @@
       </c>
     </row>
     <row r="72" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="11" t="s">
         <v>19</v>
       </c>
@@ -14984,9 +15008,9 @@
       </c>
     </row>
     <row r="73" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -15144,9 +15168,9 @@
       </c>
     </row>
     <row r="74" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="11" t="s">
         <v>19</v>
       </c>
@@ -15302,9 +15326,9 @@
       </c>
     </row>
     <row r="75" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -15462,9 +15486,9 @@
       </c>
     </row>
     <row r="76" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
@@ -15620,9 +15644,9 @@
       </c>
     </row>
     <row r="77" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="53" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -15780,9 +15804,9 @@
       </c>
     </row>
     <row r="78" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="11" t="s">
         <v>19</v>
       </c>
@@ -15938,12 +15962,12 @@
       </c>
     </row>
     <row r="79" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="53" t="s">
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="14">
         <v>47</v>
       </c>
@@ -16096,7 +16120,7 @@
       </c>
     </row>
     <row r="80" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="54"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="33" t="s">
         <v>1</v>
       </c>
@@ -16258,12 +16282,12 @@
       </c>
     </row>
     <row r="81" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A81" s="55"/>
-      <c r="B81" s="64" t="s">
+      <c r="A81" s="42"/>
+      <c r="B81" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="14">
         <v>575</v>
       </c>
@@ -16580,13 +16604,13 @@
       </c>
     </row>
     <row r="83" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="40" t="s">
         <v>51</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -16744,9 +16768,9 @@
       </c>
     </row>
     <row r="84" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="11" t="s">
         <v>19</v>
       </c>
@@ -16902,9 +16926,9 @@
       </c>
     </row>
     <row r="85" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="53" t="s">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -17062,9 +17086,9 @@
       </c>
     </row>
     <row r="86" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="11" t="s">
         <v>19</v>
       </c>
@@ -17220,12 +17244,12 @@
       </c>
     </row>
     <row r="87" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="53" t="s">
+      <c r="A87" s="41"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="46"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="14">
         <v>74</v>
       </c>
@@ -17378,7 +17402,7 @@
       </c>
     </row>
     <row r="88" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="54"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>1</v>
       </c>
@@ -17540,11 +17564,11 @@
       </c>
     </row>
     <row r="89" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A89" s="54"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="40" t="s">
         <v>51</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -17702,9 +17726,9 @@
       </c>
     </row>
     <row r="90" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="11" t="s">
         <v>24</v>
       </c>
@@ -17860,9 +17884,9 @@
       </c>
     </row>
     <row r="91" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="11" t="s">
         <v>19</v>
       </c>
@@ -18018,12 +18042,12 @@
       </c>
     </row>
     <row r="92" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="53" t="s">
+      <c r="A92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="46"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="14">
         <v>1</v>
       </c>
@@ -18176,7 +18200,7 @@
       </c>
     </row>
     <row r="93" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="54"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>1</v>
       </c>
@@ -18338,12 +18362,12 @@
       </c>
     </row>
     <row r="94" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A94" s="55"/>
-      <c r="B94" s="64" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="45"/>
-      <c r="D94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="14">
         <v>75</v>
       </c>
@@ -18660,12 +18684,12 @@
       </c>
     </row>
     <row r="96" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="20">
         <v>650</v>
       </c>
@@ -18820,30 +18844,27 @@
     <row r="97" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A83:A94"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="B63:B79"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="AK1:BB1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="A4:A81"/>
     <mergeCell ref="B4:B61"/>
@@ -18860,27 +18881,30 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="W1:AJ1"/>
-    <mergeCell ref="AK1:BB1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B63:B79"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A83:A94"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B94:D94"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18895,10 +18919,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Q3" sqref="Q3:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -18913,36 +18937,37 @@
     <col min="9" max="9" width="13.54296875" customWidth="1"/>
     <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
-    <col min="12" max="16" width="13.453125" customWidth="1"/>
+    <col min="12" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="38"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.35">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -18985,14 +19010,17 @@
       <c r="N2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -19041,8 +19069,11 @@
       <c r="P3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -19091,8 +19122,11 @@
       <c r="P4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -19141,8 +19175,11 @@
       <c r="P5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -19191,8 +19228,11 @@
       <c r="P6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -19241,8 +19281,11 @@
       <c r="P7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -19291,8 +19334,11 @@
       <c r="P8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -19341,8 +19387,11 @@
       <c r="P9" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -19391,8 +19440,11 @@
       <c r="P10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -19441,8 +19493,11 @@
       <c r="P11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -19491,8 +19546,11 @@
       <c r="P12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -19541,8 +19599,11 @@
       <c r="P13" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -19591,8 +19652,11 @@
       <c r="P14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -19641,8 +19705,11 @@
       <c r="P15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -19691,8 +19758,11 @@
       <c r="P16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -19741,8 +19811,11 @@
       <c r="P17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -19791,8 +19864,11 @@
       <c r="P18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -19841,8 +19917,11 @@
       <c r="P19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -19891,8 +19970,11 @@
       <c r="P20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -19941,8 +20023,11 @@
       <c r="P21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -19991,8 +20076,11 @@
       <c r="P22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -20041,8 +20129,11 @@
       <c r="P23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -20091,8 +20182,11 @@
       <c r="P24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -20141,8 +20235,11 @@
       <c r="P25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -20191,8 +20288,11 @@
       <c r="P26" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -20241,8 +20341,11 @@
       <c r="P27" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -20291,8 +20394,11 @@
       <c r="P28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -20341,8 +20447,11 @@
       <c r="P29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -20391,8 +20500,11 @@
       <c r="P30" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -20441,8 +20553,11 @@
       <c r="P31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -20491,8 +20606,11 @@
       <c r="P32" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -20541,8 +20659,11 @@
       <c r="P33" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -20591,8 +20712,11 @@
       <c r="P34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -20641,8 +20765,11 @@
       <c r="P35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -20691,8 +20818,11 @@
       <c r="P36" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -20741,8 +20871,11 @@
       <c r="P37" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -20791,8 +20924,11 @@
       <c r="P38" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -20841,8 +20977,11 @@
       <c r="P39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -20891,8 +21030,11 @@
       <c r="P40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -20941,8 +21083,11 @@
       <c r="P41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -20991,8 +21136,11 @@
       <c r="P42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -21041,8 +21189,11 @@
       <c r="P43" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -21091,8 +21242,11 @@
       <c r="P44" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -21141,8 +21295,11 @@
       <c r="P45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -21191,8 +21348,11 @@
       <c r="P46" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -21241,8 +21401,11 @@
       <c r="P47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -21291,8 +21454,11 @@
       <c r="P48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -21341,8 +21507,11 @@
       <c r="P49" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -21391,8 +21560,11 @@
       <c r="P50" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -21441,8 +21613,11 @@
       <c r="P51" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>21</v>
       </c>
@@ -21489,6 +21664,9 @@
         <v>0</v>
       </c>
       <c r="P52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
         <v>0</v>
       </c>
     </row>
@@ -21498,7 +21676,7 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21513,10 +21691,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -21531,10 +21709,10 @@
     <col min="9" max="9" width="13.54296875" customWidth="1"/>
     <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
-    <col min="12" max="16" width="13.453125" customWidth="1"/>
+    <col min="12" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -21583,8 +21761,11 @@
       <c r="P1" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -21633,8 +21814,11 @@
       <c r="P2" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -21683,8 +21867,11 @@
       <c r="P3" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -21733,8 +21920,11 @@
       <c r="P4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -21783,8 +21973,11 @@
       <c r="P5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -21833,8 +22026,11 @@
       <c r="P6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -21883,8 +22079,11 @@
       <c r="P7" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -21933,8 +22132,11 @@
       <c r="P8" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -21983,8 +22185,11 @@
       <c r="P9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -22033,8 +22238,11 @@
       <c r="P10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -22083,8 +22291,11 @@
       <c r="P11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -22133,8 +22344,11 @@
       <c r="P12" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -22183,8 +22397,11 @@
       <c r="P13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -22233,8 +22450,11 @@
       <c r="P14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -22283,8 +22503,11 @@
       <c r="P15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -22333,8 +22556,11 @@
       <c r="P16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -22383,8 +22609,11 @@
       <c r="P17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -22433,8 +22662,11 @@
       <c r="P18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -22483,8 +22715,11 @@
       <c r="P19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -22533,8 +22768,11 @@
       <c r="P20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -22583,8 +22821,11 @@
       <c r="P21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -22633,8 +22874,11 @@
       <c r="P22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -22683,8 +22927,11 @@
       <c r="P23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -22733,8 +22980,11 @@
       <c r="P24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -22783,8 +23033,11 @@
       <c r="P25" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -22833,8 +23086,11 @@
       <c r="P26" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -22883,8 +23139,11 @@
       <c r="P27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -22933,8 +23192,11 @@
       <c r="P28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -22983,8 +23245,11 @@
       <c r="P29" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -23033,8 +23298,11 @@
       <c r="P30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -23083,8 +23351,11 @@
       <c r="P31" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -23133,8 +23404,11 @@
       <c r="P32" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -23183,8 +23457,11 @@
       <c r="P33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -23233,8 +23510,11 @@
       <c r="P34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -23283,8 +23563,11 @@
       <c r="P35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -23333,8 +23616,11 @@
       <c r="P36" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -23383,8 +23669,11 @@
       <c r="P37" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -23433,8 +23722,11 @@
       <c r="P38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -23483,8 +23775,11 @@
       <c r="P39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -23533,8 +23828,11 @@
       <c r="P40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -23583,8 +23881,11 @@
       <c r="P41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -23633,8 +23934,11 @@
       <c r="P42" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -23683,8 +23987,11 @@
       <c r="P43" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -23733,8 +24040,11 @@
       <c r="P44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -23783,8 +24093,11 @@
       <c r="P45" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -23833,8 +24146,11 @@
       <c r="P46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -23883,8 +24199,11 @@
       <c r="P47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -23933,8 +24252,11 @@
       <c r="P48" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -23983,8 +24305,11 @@
       <c r="P49" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -24033,8 +24358,11 @@
       <c r="P50" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -24081,6 +24409,9 @@
         <v>0</v>
       </c>
       <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
         <v>0</v>
       </c>
     </row>
@@ -24098,10 +24429,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -24117,38 +24448,39 @@
     <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
     <col min="12" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="13.54296875" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="38"/>
       <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="47" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-    </row>
-    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+    </row>
+    <row r="2" spans="1:18" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -24191,17 +24523,20 @@
       <c r="N2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R2" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -24253,8 +24588,11 @@
       <c r="Q3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -24306,8 +24644,11 @@
       <c r="Q4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -24359,8 +24700,11 @@
       <c r="Q5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -24412,8 +24756,11 @@
       <c r="Q6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -24465,8 +24812,11 @@
       <c r="Q7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -24518,8 +24868,11 @@
       <c r="Q8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -24571,8 +24924,11 @@
       <c r="Q9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -24624,8 +24980,11 @@
       <c r="Q10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -24677,8 +25036,11 @@
       <c r="Q11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -24730,8 +25092,11 @@
       <c r="Q12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -24783,8 +25148,11 @@
       <c r="Q13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -24836,8 +25204,11 @@
       <c r="Q14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -24889,8 +25260,11 @@
       <c r="Q15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -24942,8 +25316,11 @@
       <c r="Q16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -24995,8 +25372,11 @@
       <c r="Q17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -25048,8 +25428,11 @@
       <c r="Q18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -25101,8 +25484,11 @@
       <c r="Q19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -25154,8 +25540,11 @@
       <c r="Q20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -25207,8 +25596,11 @@
       <c r="Q21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -25260,8 +25652,11 @@
       <c r="Q22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -25311,10 +25706,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -25366,8 +25764,11 @@
       <c r="Q24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -25419,8 +25820,11 @@
       <c r="Q25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -25472,8 +25876,11 @@
       <c r="Q26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -25525,8 +25932,11 @@
       <c r="Q27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -25578,8 +25988,11 @@
       <c r="Q28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -25631,8 +26044,11 @@
       <c r="Q29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -25684,8 +26100,11 @@
       <c r="Q30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -25737,8 +26156,11 @@
       <c r="Q31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -25790,8 +26212,11 @@
       <c r="Q32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -25843,8 +26268,11 @@
       <c r="Q33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -25896,8 +26324,11 @@
       <c r="Q34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -25949,8 +26380,11 @@
       <c r="Q35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -26002,8 +26436,11 @@
       <c r="Q36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -26055,8 +26492,11 @@
       <c r="Q37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -26108,8 +26548,11 @@
       <c r="Q38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -26161,8 +26604,11 @@
       <c r="Q39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -26214,8 +26660,11 @@
       <c r="Q40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -26267,8 +26716,11 @@
       <c r="Q41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -26320,8 +26772,11 @@
       <c r="Q42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -26373,8 +26828,11 @@
       <c r="Q43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -26426,8 +26884,11 @@
       <c r="Q44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -26479,8 +26940,11 @@
       <c r="Q45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -26532,8 +26996,11 @@
       <c r="Q46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -26585,8 +27052,11 @@
       <c r="Q47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -26638,8 +27108,11 @@
       <c r="Q48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -26691,8 +27164,11 @@
       <c r="Q49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -26744,8 +27220,11 @@
       <c r="Q50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -26797,8 +27276,11 @@
       <c r="Q51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>21</v>
       </c>
@@ -26850,10 +27332,13 @@
       <c r="Q52" s="9">
         <v>0</v>
       </c>
+      <c r="R52" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -26872,10 +27357,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -26893,9 +27378,10 @@
     <col min="12" max="15" width="13.453125" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -26947,8 +27433,11 @@
       <c r="Q1" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -27000,8 +27489,11 @@
       <c r="Q2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -27053,8 +27545,11 @@
       <c r="Q3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -27106,8 +27601,11 @@
       <c r="Q4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -27159,8 +27657,11 @@
       <c r="Q5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -27212,8 +27713,11 @@
       <c r="Q6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -27265,8 +27769,11 @@
       <c r="Q7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -27318,8 +27825,11 @@
       <c r="Q8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -27371,8 +27881,11 @@
       <c r="Q9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -27424,8 +27937,11 @@
       <c r="Q10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -27477,8 +27993,11 @@
       <c r="Q11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -27530,8 +28049,11 @@
       <c r="Q12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -27583,8 +28105,11 @@
       <c r="Q13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -27636,8 +28161,11 @@
       <c r="Q14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -27689,8 +28217,11 @@
       <c r="Q15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -27742,8 +28273,11 @@
       <c r="Q16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -27795,8 +28329,11 @@
       <c r="Q17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -27848,8 +28385,11 @@
       <c r="Q18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -27901,8 +28441,11 @@
       <c r="Q19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -27954,8 +28497,11 @@
       <c r="Q20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -28007,8 +28553,11 @@
       <c r="Q21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -28060,8 +28609,11 @@
       <c r="Q22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -28113,8 +28665,11 @@
       <c r="Q23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -28166,8 +28721,11 @@
       <c r="Q24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -28219,8 +28777,11 @@
       <c r="Q25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -28272,8 +28833,11 @@
       <c r="Q26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -28325,8 +28889,11 @@
       <c r="Q27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -28378,8 +28945,11 @@
       <c r="Q28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -28431,8 +29001,11 @@
       <c r="Q29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -28484,8 +29057,11 @@
       <c r="Q30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -28537,8 +29113,11 @@
       <c r="Q31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -28590,8 +29169,11 @@
       <c r="Q32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -28643,8 +29225,11 @@
       <c r="Q33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -28696,8 +29281,11 @@
       <c r="Q34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -28749,8 +29337,11 @@
       <c r="Q35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -28802,8 +29393,11 @@
       <c r="Q36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -28855,8 +29449,11 @@
       <c r="Q37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -28908,8 +29505,11 @@
       <c r="Q38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -28961,8 +29561,11 @@
       <c r="Q39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -29014,8 +29617,11 @@
       <c r="Q40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -29067,8 +29673,11 @@
       <c r="Q41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -29120,8 +29729,11 @@
       <c r="Q42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -29173,8 +29785,11 @@
       <c r="Q43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -29226,8 +29841,11 @@
       <c r="Q44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -29279,8 +29897,11 @@
       <c r="Q45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -29332,8 +29953,11 @@
       <c r="Q46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -29385,8 +30009,11 @@
       <c r="Q47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -29438,8 +30065,11 @@
       <c r="Q48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -29491,8 +30121,11 @@
       <c r="Q49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -29544,8 +30177,11 @@
       <c r="Q50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -29595,6 +30231,9 @@
         <v>0</v>
       </c>
       <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
         <v>0</v>
       </c>
     </row>
@@ -29608,9 +30247,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29728,19 +30370,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589B8FDD-D757-4316-AEC1-96E17BBF5956}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9060D7-47F5-430D-8D50-F2878ECB81FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29762,9 +30400,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9060D7-47F5-430D-8D50-F2878ECB81FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589B8FDD-D757-4316-AEC1-96E17BBF5956}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>